--- a/lowe/edd/data/SATR$HWS.xlsx
+++ b/lowe/edd/data/SATR$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1469,14 +1469,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH67"/>
+  <dimension ref="A1:JI67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1486,12 +1486,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1519,12 +1519,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2339,11 +2339,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3144,10 +3147,13 @@
         <v>249300</v>
       </c>
       <c r="JH9" s="11">
-        <v>248700</v>
+        <v>248600</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>249600</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3948,10 +3954,13 @@
         <v>235400</v>
       </c>
       <c r="JH10" s="11">
-        <v>235500</v>
+        <v>235400</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>238400</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4754,8 +4763,11 @@
       <c r="JH11" s="11">
         <v>13200</v>
       </c>
+      <c r="JI11" s="11">
+        <v>11200</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5558,8 +5570,11 @@
       <c r="JH12" s="12">
         <v>5.2999999999999999E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>4.4999999999999998E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6360,10 +6375,13 @@
         <v>201200</v>
       </c>
       <c r="JH13" s="11">
-        <v>203200</v>
+        <v>203100</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>203900</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7166,8 +7184,11 @@
       <c r="JH14" s="11">
         <v>6800</v>
       </c>
+      <c r="JI14" s="11">
+        <v>6800</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7968,10 +7989,13 @@
         <v>193800</v>
       </c>
       <c r="JH15" s="11">
-        <v>196400</v>
+        <v>196300</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>197100</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8772,10 +8796,13 @@
         <v>168400</v>
       </c>
       <c r="JH16" s="11">
+        <v>169600</v>
+      </c>
+      <c r="JI16" s="11">
         <v>169700</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9576,10 +9603,13 @@
         <v>39600</v>
       </c>
       <c r="JH17" s="11">
-        <v>40100</v>
+        <v>39800</v>
+      </c>
+      <c r="JI17" s="11">
+        <v>40300</v>
       </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10382,8 +10412,11 @@
       <c r="JH18" s="11">
         <v>17300</v>
       </c>
+      <c r="JI18" s="11">
+        <v>17500</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11186,8 +11219,11 @@
       <c r="JH19" s="11">
         <v>200</v>
       </c>
+      <c r="JI19" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11990,8 +12026,11 @@
       <c r="JH20" s="11">
         <v>17100</v>
       </c>
+      <c r="JI20" s="11">
+        <v>17300</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12794,8 +12833,11 @@
       <c r="JH21" s="11">
         <v>10800</v>
       </c>
+      <c r="JI21" s="11">
+        <v>10800</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13596,10 +13638,13 @@
         <v>22500</v>
       </c>
       <c r="JH22" s="11">
+        <v>22500</v>
+      </c>
+      <c r="JI22" s="11">
         <v>22800</v>
       </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14402,8 +14447,11 @@
       <c r="JH23" s="11">
         <v>8700</v>
       </c>
+      <c r="JI23" s="11">
+        <v>8700</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -15204,10 +15252,13 @@
         <v>13800</v>
       </c>
       <c r="JH24" s="11">
+        <v>13800</v>
+      </c>
+      <c r="JI24" s="11">
         <v>14100</v>
       </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -16008,10 +16059,13 @@
         <v>154200</v>
       </c>
       <c r="JH25" s="11">
-        <v>156300</v>
+        <v>156500</v>
+      </c>
+      <c r="JI25" s="11">
+        <v>156800</v>
       </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>26</v>
       </c>
@@ -16812,10 +16866,13 @@
         <v>128800</v>
       </c>
       <c r="JH26" s="11">
-        <v>129600</v>
+        <v>129800</v>
+      </c>
+      <c r="JI26" s="11">
+        <v>129400</v>
       </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>27</v>
       </c>
@@ -17616,10 +17673,13 @@
         <v>34700</v>
       </c>
       <c r="JH27" s="11">
-        <v>34600</v>
+        <v>34700</v>
+      </c>
+      <c r="JI27" s="11">
+        <v>34300</v>
       </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>28</v>
       </c>
@@ -18422,8 +18482,11 @@
       <c r="JH28" s="11">
         <v>7300</v>
       </c>
+      <c r="JI28" s="11">
+        <v>7200</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>29</v>
       </c>
@@ -19224,10 +19287,13 @@
         <v>23200</v>
       </c>
       <c r="JH29" s="11">
-        <v>23000</v>
+        <v>23100</v>
+      </c>
+      <c r="JI29" s="11">
+        <v>22800</v>
       </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -20030,8 +20096,11 @@
       <c r="JH30" s="11">
         <v>7400</v>
       </c>
+      <c r="JI30" s="11">
+        <v>7400</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -20834,8 +20903,11 @@
       <c r="JH31" s="11">
         <v>2800</v>
       </c>
+      <c r="JI31" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>35</v>
       </c>
@@ -21638,8 +21710,11 @@
       <c r="JH32" s="11">
         <v>4300</v>
       </c>
+      <c r="JI32" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>36</v>
       </c>
@@ -22442,8 +22517,11 @@
       <c r="JH33" s="11">
         <v>2300</v>
       </c>
+      <c r="JI33" s="11">
+        <v>2300</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>37</v>
       </c>
@@ -23246,8 +23324,11 @@
       <c r="JH34" s="11">
         <v>7500</v>
       </c>
+      <c r="JI34" s="11">
+        <v>7400</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>38</v>
       </c>
@@ -24050,8 +24131,11 @@
       <c r="JH35" s="11">
         <v>4300</v>
       </c>
+      <c r="JI35" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>41</v>
       </c>
@@ -24852,10 +24936,13 @@
         <v>23000</v>
       </c>
       <c r="JH36" s="11">
-        <v>23000</v>
+        <v>22800</v>
+      </c>
+      <c r="JI36" s="11">
+        <v>22800</v>
       </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>42</v>
       </c>
@@ -25656,10 +25743,13 @@
         <v>9400</v>
       </c>
       <c r="JH37" s="11">
-        <v>9500</v>
+        <v>9300</v>
+      </c>
+      <c r="JI37" s="11">
+        <v>9300</v>
       </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>43</v>
       </c>
@@ -26462,8 +26552,11 @@
       <c r="JH38" s="11">
         <v>2100</v>
       </c>
+      <c r="JI38" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>44</v>
       </c>
@@ -27266,8 +27359,11 @@
       <c r="JH39" s="11">
         <v>11400</v>
       </c>
+      <c r="JI39" s="11">
+        <v>11400</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>45</v>
       </c>
@@ -28070,8 +28166,11 @@
       <c r="JH40" s="11">
         <v>10600</v>
       </c>
+      <c r="JI40" s="11">
+        <v>10700</v>
+      </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>50</v>
       </c>
@@ -28872,10 +28971,13 @@
         <v>33400</v>
       </c>
       <c r="JH41" s="11">
-        <v>34000</v>
+        <v>33700</v>
+      </c>
+      <c r="JI41" s="11">
+        <v>34100</v>
       </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>52</v>
       </c>
@@ -29676,10 +29778,13 @@
         <v>32100</v>
       </c>
       <c r="JH42" s="11">
-        <v>32700</v>
+        <v>32500</v>
+      </c>
+      <c r="JI42" s="11">
+        <v>32600</v>
       </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>56</v>
       </c>
@@ -30480,10 +30585,13 @@
         <v>21600</v>
       </c>
       <c r="JH43" s="11">
-        <v>22000</v>
+        <v>22600</v>
+      </c>
+      <c r="JI43" s="11">
+        <v>22300</v>
       </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>58</v>
       </c>
@@ -31284,10 +31392,13 @@
         <v>17800</v>
       </c>
       <c r="JH44" s="11">
-        <v>18200</v>
+        <v>18700</v>
+      </c>
+      <c r="JI44" s="11">
+        <v>18500</v>
       </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>60</v>
       </c>
@@ -32088,10 +32199,13 @@
         <v>13600</v>
       </c>
       <c r="JH45" s="11">
-        <v>13600</v>
+        <v>14100</v>
+      </c>
+      <c r="JI45" s="11">
+        <v>13800</v>
       </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>63</v>
       </c>
@@ -32894,8 +33008,11 @@
       <c r="JH46" s="11">
         <v>6200</v>
       </c>
+      <c r="JI46" s="11">
+        <v>6200</v>
+      </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>64</v>
       </c>
@@ -33698,8 +33815,11 @@
       <c r="JH47" s="11">
         <v>26700</v>
       </c>
+      <c r="JI47" s="11">
+        <v>27400</v>
+      </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>65</v>
       </c>
@@ -34502,8 +34622,11 @@
       <c r="JH48" s="11">
         <v>1200</v>
       </c>
+      <c r="JI48" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>66</v>
       </c>
@@ -35306,8 +35429,11 @@
       <c r="JH49" s="11">
         <v>25500</v>
       </c>
+      <c r="JI49" s="11">
+        <v>26200</v>
+      </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>67</v>
       </c>
@@ -36110,8 +36236,11 @@
       <c r="JH50" s="11">
         <v>2800</v>
       </c>
+      <c r="JI50" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>68</v>
       </c>
@@ -36914,8 +37043,11 @@
       <c r="JH51" s="11">
         <v>1300</v>
       </c>
+      <c r="JI51" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>69</v>
       </c>
@@ -37718,8 +37850,11 @@
       <c r="JH52" s="11">
         <v>1500</v>
       </c>
+      <c r="JI52" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>70</v>
       </c>
@@ -38522,8 +38657,11 @@
       <c r="JH53" s="11">
         <v>22700</v>
       </c>
+      <c r="JI53" s="11">
+        <v>23000</v>
+      </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>71</v>
       </c>
@@ -39326,8 +39464,11 @@
       <c r="JH54" s="11">
         <v>11500</v>
       </c>
+      <c r="JI54" s="11">
+        <v>11900</v>
+      </c>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>72</v>
       </c>
@@ -40130,8 +40271,11 @@
       <c r="JH55" s="11">
         <v>11200</v>
       </c>
+      <c r="JI55" s="11">
+        <v>11100</v>
+      </c>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>73</v>
       </c>
@@ -40932,10 +41076,13 @@
         <v>4800</v>
       </c>
       <c r="JH56" s="11">
+        <v>4900</v>
+      </c>
+      <c r="JI56" s="11">
         <v>4800</v>
       </c>
     </row>
-    <row r="57" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>74</v>
       </c>
@@ -41736,10 +41883,13 @@
         <v>2700</v>
       </c>
       <c r="JH57" s="11">
+        <v>2600</v>
+      </c>
+      <c r="JI57" s="11">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>75</v>
       </c>
@@ -42540,10 +42690,13 @@
         <v>3700</v>
       </c>
       <c r="JH58" s="11">
-        <v>3900</v>
+        <v>3700</v>
+      </c>
+      <c r="JI58" s="11">
+        <v>3800</v>
       </c>
     </row>
-    <row r="60" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>142</v>
       </c>
@@ -42556,7 +42709,7 @@
       <c r="H60" s="17"/>
       <c r="I60" s="16"/>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>16</v>
       </c>
@@ -42569,7 +42722,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="18"/>
     </row>
-    <row r="62" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>143</v>
       </c>
@@ -42582,7 +42735,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="18"/>
     </row>
-    <row r="63" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>144</v>
       </c>
@@ -42595,7 +42748,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>145</v>
       </c>

--- a/lowe/edd/data/SATR$HWS.xlsx
+++ b/lowe/edd/data/SATR$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1469,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI67"/>
+  <dimension ref="A1:JJ67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,12 +1486,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1519,12 +1519,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2342,11 +2342,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3150,10 +3153,13 @@
         <v>248600</v>
       </c>
       <c r="JI9" s="11">
-        <v>249600</v>
+        <v>249500</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>249300</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3959,8 +3965,11 @@
       <c r="JI10" s="11">
         <v>238400</v>
       </c>
+      <c r="JJ10" s="11">
+        <v>238700</v>
+      </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4764,10 +4773,13 @@
         <v>13200</v>
       </c>
       <c r="JI11" s="11">
-        <v>11200</v>
+        <v>11100</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>10600</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5571,10 +5583,13 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="JI12" s="12">
-        <v>4.4999999999999998E-2</v>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6380,8 +6395,11 @@
       <c r="JI13" s="11">
         <v>203900</v>
       </c>
+      <c r="JJ13" s="11">
+        <v>204600</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7187,8 +7205,11 @@
       <c r="JI14" s="11">
         <v>6800</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>5800</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7994,8 +8015,11 @@
       <c r="JI15" s="11">
         <v>197100</v>
       </c>
+      <c r="JJ15" s="11">
+        <v>198800</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8799,10 +8823,13 @@
         <v>169600</v>
       </c>
       <c r="JI16" s="11">
-        <v>169700</v>
+        <v>169600</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>170700</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9606,10 +9633,13 @@
         <v>39800</v>
       </c>
       <c r="JI17" s="11">
-        <v>40300</v>
+        <v>40500</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>40500</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10415,8 +10445,11 @@
       <c r="JI18" s="11">
         <v>17500</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>17400</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11222,8 +11255,11 @@
       <c r="JI19" s="11">
         <v>200</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12029,8 +12065,11 @@
       <c r="JI20" s="11">
         <v>17300</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>17200</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12834,10 +12873,13 @@
         <v>10800</v>
       </c>
       <c r="JI21" s="11">
-        <v>10800</v>
+        <v>11000</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>11100</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13641,10 +13683,13 @@
         <v>22500</v>
       </c>
       <c r="JI22" s="11">
-        <v>22800</v>
+        <v>23000</v>
+      </c>
+      <c r="JJ22" s="11">
+        <v>23100</v>
       </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14450,8 +14495,11 @@
       <c r="JI23" s="11">
         <v>8700</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>8700</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -15255,10 +15303,13 @@
         <v>13800</v>
       </c>
       <c r="JI24" s="11">
-        <v>14100</v>
+        <v>14300</v>
+      </c>
+      <c r="JJ24" s="11">
+        <v>14400</v>
       </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -16062,10 +16113,13 @@
         <v>156500</v>
       </c>
       <c r="JI25" s="11">
-        <v>156800</v>
+        <v>156600</v>
+      </c>
+      <c r="JJ25" s="11">
+        <v>158300</v>
       </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>26</v>
       </c>
@@ -16869,10 +16923,13 @@
         <v>129800</v>
       </c>
       <c r="JI26" s="11">
-        <v>129400</v>
+        <v>129100</v>
+      </c>
+      <c r="JJ26" s="11">
+        <v>130200</v>
       </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>27</v>
       </c>
@@ -17678,8 +17735,11 @@
       <c r="JI27" s="11">
         <v>34300</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>34600</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>28</v>
       </c>
@@ -18485,8 +18545,11 @@
       <c r="JI28" s="11">
         <v>7200</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>7200</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>29</v>
       </c>
@@ -19292,8 +19355,11 @@
       <c r="JI29" s="11">
         <v>22800</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>23000</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -20099,8 +20165,11 @@
       <c r="JI30" s="11">
         <v>7400</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>7400</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -20906,8 +20975,11 @@
       <c r="JI31" s="11">
         <v>2900</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>35</v>
       </c>
@@ -21713,8 +21785,11 @@
       <c r="JI32" s="11">
         <v>4300</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>36</v>
       </c>
@@ -22520,8 +22595,11 @@
       <c r="JI33" s="11">
         <v>2300</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>2300</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>37</v>
       </c>
@@ -23327,8 +23405,11 @@
       <c r="JI34" s="11">
         <v>7400</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>7400</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>38</v>
       </c>
@@ -24134,8 +24215,11 @@
       <c r="JI35" s="11">
         <v>4300</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>41</v>
       </c>
@@ -24939,10 +25023,13 @@
         <v>22800</v>
       </c>
       <c r="JI36" s="11">
-        <v>22800</v>
+        <v>22900</v>
+      </c>
+      <c r="JJ36" s="11">
+        <v>23500</v>
       </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>42</v>
       </c>
@@ -25748,8 +25835,11 @@
       <c r="JI37" s="11">
         <v>9300</v>
       </c>
+      <c r="JJ37" s="11">
+        <v>9500</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>43</v>
       </c>
@@ -26555,8 +26645,11 @@
       <c r="JI38" s="11">
         <v>2100</v>
       </c>
+      <c r="JJ38" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>44</v>
       </c>
@@ -27360,10 +27453,13 @@
         <v>11400</v>
       </c>
       <c r="JI39" s="11">
-        <v>11400</v>
+        <v>11500</v>
+      </c>
+      <c r="JJ39" s="11">
+        <v>11900</v>
       </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>45</v>
       </c>
@@ -28169,8 +28265,11 @@
       <c r="JI40" s="11">
         <v>10700</v>
       </c>
+      <c r="JJ40" s="11">
+        <v>11000</v>
+      </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>50</v>
       </c>
@@ -28976,8 +29075,11 @@
       <c r="JI41" s="11">
         <v>34100</v>
       </c>
+      <c r="JJ41" s="11">
+        <v>34500</v>
+      </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>52</v>
       </c>
@@ -29781,10 +29883,13 @@
         <v>32500</v>
       </c>
       <c r="JI42" s="11">
-        <v>32600</v>
+        <v>32700</v>
+      </c>
+      <c r="JJ42" s="11">
+        <v>33000</v>
       </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>56</v>
       </c>
@@ -30588,10 +30693,13 @@
         <v>22600</v>
       </c>
       <c r="JI43" s="11">
-        <v>22300</v>
+        <v>21900</v>
+      </c>
+      <c r="JJ43" s="11">
+        <v>21800</v>
       </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>58</v>
       </c>
@@ -31395,10 +31503,13 @@
         <v>18700</v>
       </c>
       <c r="JI44" s="11">
-        <v>18500</v>
+        <v>18200</v>
+      </c>
+      <c r="JJ44" s="11">
+        <v>17800</v>
       </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>60</v>
       </c>
@@ -32202,10 +32313,13 @@
         <v>14100</v>
       </c>
       <c r="JI45" s="11">
-        <v>13800</v>
+        <v>13900</v>
+      </c>
+      <c r="JJ45" s="11">
+        <v>13900</v>
       </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>63</v>
       </c>
@@ -33011,8 +33125,11 @@
       <c r="JI46" s="11">
         <v>6200</v>
       </c>
+      <c r="JJ46" s="11">
+        <v>6100</v>
+      </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>64</v>
       </c>
@@ -33816,10 +33933,13 @@
         <v>26700</v>
       </c>
       <c r="JI47" s="11">
-        <v>27400</v>
+        <v>27500</v>
+      </c>
+      <c r="JJ47" s="11">
+        <v>28100</v>
       </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>65</v>
       </c>
@@ -34625,8 +34745,11 @@
       <c r="JI48" s="11">
         <v>1200</v>
       </c>
+      <c r="JJ48" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>66</v>
       </c>
@@ -35430,10 +35553,13 @@
         <v>25500</v>
       </c>
       <c r="JI49" s="11">
-        <v>26200</v>
+        <v>26300</v>
+      </c>
+      <c r="JJ49" s="11">
+        <v>26900</v>
       </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>67</v>
       </c>
@@ -36239,8 +36365,11 @@
       <c r="JI50" s="11">
         <v>3200</v>
       </c>
+      <c r="JJ50" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>68</v>
       </c>
@@ -37046,8 +37175,11 @@
       <c r="JI51" s="11">
         <v>1700</v>
       </c>
+      <c r="JJ51" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>69</v>
       </c>
@@ -37853,8 +37985,11 @@
       <c r="JI52" s="11">
         <v>1500</v>
       </c>
+      <c r="JJ52" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>70</v>
       </c>
@@ -38658,10 +38793,13 @@
         <v>22700</v>
       </c>
       <c r="JI53" s="11">
-        <v>23000</v>
+        <v>23100</v>
+      </c>
+      <c r="JJ53" s="11">
+        <v>23700</v>
       </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>71</v>
       </c>
@@ -39465,10 +39603,13 @@
         <v>11500</v>
       </c>
       <c r="JI54" s="11">
-        <v>11900</v>
+        <v>12000</v>
+      </c>
+      <c r="JJ54" s="11">
+        <v>12600</v>
       </c>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>72</v>
       </c>
@@ -40274,8 +40415,11 @@
       <c r="JI55" s="11">
         <v>11100</v>
       </c>
+      <c r="JJ55" s="11">
+        <v>11100</v>
+      </c>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>73</v>
       </c>
@@ -41081,8 +41225,11 @@
       <c r="JI56" s="11">
         <v>4800</v>
       </c>
+      <c r="JJ56" s="11">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>74</v>
       </c>
@@ -41888,8 +42035,11 @@
       <c r="JI57" s="11">
         <v>2500</v>
       </c>
+      <c r="JJ57" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>75</v>
       </c>
@@ -42695,8 +42845,11 @@
       <c r="JI58" s="11">
         <v>3800</v>
       </c>
+      <c r="JJ58" s="11">
+        <v>3800</v>
+      </c>
     </row>
-    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>142</v>
       </c>
@@ -42709,7 +42862,7 @@
       <c r="H60" s="17"/>
       <c r="I60" s="16"/>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>16</v>
       </c>
@@ -42722,7 +42875,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="18"/>
     </row>
-    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>143</v>
       </c>
@@ -42735,7 +42888,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="18"/>
     </row>
-    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>144</v>
       </c>
@@ -42748,7 +42901,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>145</v>
       </c>

--- a/lowe/edd/data/SATR$HWS.xlsx
+++ b/lowe/edd/data/SATR$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,13 +341,13 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>70-722000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Food Services &amp; Drinking Places</t>
+    <t xml:space="preserve">        Food Services &amp; Drinking Places</t>
   </si>
   <si>
     <t>811000-813000</t>
@@ -1469,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ67"/>
+  <dimension ref="A1:JL67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,12 +1486,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1519,12 +1519,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2345,11 +2345,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3158,8 +3164,14 @@
       <c r="JJ9" s="11">
         <v>249300</v>
       </c>
+      <c r="JK9" s="11">
+        <v>247100</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>246300</v>
+      </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3968,8 +3980,14 @@
       <c r="JJ10" s="11">
         <v>238700</v>
       </c>
+      <c r="JK10" s="11">
+        <v>237900</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>237800</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4778,8 +4796,14 @@
       <c r="JJ11" s="11">
         <v>10600</v>
       </c>
+      <c r="JK11" s="11">
+        <v>9200</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>8600</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5586,10 +5610,16 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="JJ12" s="12">
-        <v>4.2999999999999997E-2</v>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="JK12" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6398,8 +6428,14 @@
       <c r="JJ13" s="11">
         <v>204600</v>
       </c>
+      <c r="JK13" s="11">
+        <v>202900</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>203100</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7208,8 +7244,14 @@
       <c r="JJ14" s="11">
         <v>5800</v>
       </c>
+      <c r="JK14" s="11">
+        <v>4500</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8018,8 +8060,14 @@
       <c r="JJ15" s="11">
         <v>198800</v>
       </c>
+      <c r="JK15" s="11">
+        <v>198400</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>198400</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8826,10 +8874,16 @@
         <v>169600</v>
       </c>
       <c r="JJ16" s="11">
+        <v>171100</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>170400</v>
+      </c>
+      <c r="JL16" s="11">
         <v>170700</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9636,10 +9690,16 @@
         <v>40500</v>
       </c>
       <c r="JJ17" s="11">
+        <v>40900</v>
+      </c>
+      <c r="JK17" s="11">
         <v>40500</v>
       </c>
+      <c r="JL17" s="11">
+        <v>40400</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10446,10 +10506,16 @@
         <v>17500</v>
       </c>
       <c r="JJ18" s="11">
-        <v>17400</v>
+        <v>17500</v>
+      </c>
+      <c r="JK18" s="11">
+        <v>17800</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>18000</v>
       </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11258,8 +11324,14 @@
       <c r="JJ19" s="11">
         <v>200</v>
       </c>
+      <c r="JK19" s="11">
+        <v>200</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12066,10 +12138,16 @@
         <v>17300</v>
       </c>
       <c r="JJ20" s="11">
-        <v>17200</v>
+        <v>17300</v>
+      </c>
+      <c r="JK20" s="11">
+        <v>17600</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>17800</v>
       </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12876,10 +12954,16 @@
         <v>11000</v>
       </c>
       <c r="JJ21" s="11">
-        <v>11100</v>
+        <v>11000</v>
+      </c>
+      <c r="JK21" s="11">
+        <v>11400</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>11600</v>
       </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13686,10 +13770,16 @@
         <v>23000</v>
       </c>
       <c r="JJ22" s="11">
-        <v>23100</v>
+        <v>23400</v>
+      </c>
+      <c r="JK22" s="11">
+        <v>22700</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>22400</v>
       </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14496,10 +14586,16 @@
         <v>8700</v>
       </c>
       <c r="JJ23" s="11">
+        <v>8800</v>
+      </c>
+      <c r="JK23" s="11">
         <v>8700</v>
       </c>
+      <c r="JL23" s="11">
+        <v>8900</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -15306,10 +15402,16 @@
         <v>14300</v>
       </c>
       <c r="JJ24" s="11">
-        <v>14400</v>
+        <v>14600</v>
+      </c>
+      <c r="JK24" s="11">
+        <v>14000</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>13500</v>
       </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -16116,10 +16218,16 @@
         <v>156600</v>
       </c>
       <c r="JJ25" s="11">
-        <v>158300</v>
+        <v>157900</v>
+      </c>
+      <c r="JK25" s="11">
+        <v>157900</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>158000</v>
       </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>26</v>
       </c>
@@ -16928,8 +17036,14 @@
       <c r="JJ26" s="11">
         <v>130200</v>
       </c>
+      <c r="JK26" s="11">
+        <v>129900</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>130300</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>27</v>
       </c>
@@ -17736,10 +17850,16 @@
         <v>34300</v>
       </c>
       <c r="JJ27" s="11">
-        <v>34600</v>
+        <v>34500</v>
+      </c>
+      <c r="JK27" s="11">
+        <v>35300</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>35700</v>
       </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>28</v>
       </c>
@@ -18548,8 +18668,14 @@
       <c r="JJ28" s="11">
         <v>7200</v>
       </c>
+      <c r="JK28" s="11">
+        <v>7200</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>7300</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>29</v>
       </c>
@@ -19358,8 +19484,14 @@
       <c r="JJ29" s="11">
         <v>23000</v>
       </c>
+      <c r="JK29" s="11">
+        <v>23700</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>23800</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -20168,8 +20300,14 @@
       <c r="JJ30" s="11">
         <v>7400</v>
       </c>
+      <c r="JK30" s="11">
+        <v>7500</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -20978,8 +21116,14 @@
       <c r="JJ31" s="11">
         <v>3000</v>
       </c>
+      <c r="JK31" s="11">
+        <v>3300</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>35</v>
       </c>
@@ -21786,10 +21930,16 @@
         <v>4300</v>
       </c>
       <c r="JJ32" s="11">
+        <v>4300</v>
+      </c>
+      <c r="JK32" s="11">
         <v>4400</v>
       </c>
+      <c r="JL32" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>36</v>
       </c>
@@ -22598,8 +22748,14 @@
       <c r="JJ33" s="11">
         <v>2300</v>
       </c>
+      <c r="JK33" s="11">
+        <v>2300</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>2300</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>37</v>
       </c>
@@ -23406,10 +23562,16 @@
         <v>7400</v>
       </c>
       <c r="JJ34" s="11">
+        <v>7500</v>
+      </c>
+      <c r="JK34" s="11">
+        <v>7300</v>
+      </c>
+      <c r="JL34" s="11">
         <v>7400</v>
       </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>38</v>
       </c>
@@ -24218,8 +24380,14 @@
       <c r="JJ35" s="11">
         <v>4300</v>
       </c>
+      <c r="JK35" s="11">
+        <v>4200</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>41</v>
       </c>
@@ -25026,10 +25194,16 @@
         <v>22900</v>
       </c>
       <c r="JJ36" s="11">
-        <v>23500</v>
+        <v>23300</v>
+      </c>
+      <c r="JK36" s="11">
+        <v>22900</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>22800</v>
       </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>42</v>
       </c>
@@ -25836,10 +26010,16 @@
         <v>9300</v>
       </c>
       <c r="JJ37" s="11">
-        <v>9500</v>
+        <v>9400</v>
+      </c>
+      <c r="JK37" s="11">
+        <v>9200</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>9200</v>
       </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>43</v>
       </c>
@@ -26648,8 +26828,14 @@
       <c r="JJ38" s="11">
         <v>2100</v>
       </c>
+      <c r="JK38" s="11">
+        <v>2100</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>44</v>
       </c>
@@ -27456,10 +27642,16 @@
         <v>11500</v>
       </c>
       <c r="JJ39" s="11">
-        <v>11900</v>
+        <v>11800</v>
+      </c>
+      <c r="JK39" s="11">
+        <v>11600</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>11500</v>
       </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>45</v>
       </c>
@@ -28268,8 +28460,14 @@
       <c r="JJ40" s="11">
         <v>11000</v>
       </c>
+      <c r="JK40" s="11">
+        <v>10800</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>10800</v>
+      </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>50</v>
       </c>
@@ -29078,8 +29276,14 @@
       <c r="JJ41" s="11">
         <v>34500</v>
       </c>
+      <c r="JK41" s="11">
+        <v>34300</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>34000</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>52</v>
       </c>
@@ -29888,8 +30092,14 @@
       <c r="JJ42" s="11">
         <v>33000</v>
       </c>
+      <c r="JK42" s="11">
+        <v>32800</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>32400</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>56</v>
       </c>
@@ -30696,10 +30906,16 @@
         <v>21900</v>
       </c>
       <c r="JJ43" s="11">
-        <v>21800</v>
+        <v>21900</v>
+      </c>
+      <c r="JK43" s="11">
+        <v>21600</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>21900</v>
       </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>58</v>
       </c>
@@ -31506,10 +31722,16 @@
         <v>18200</v>
       </c>
       <c r="JJ44" s="11">
+        <v>18000</v>
+      </c>
+      <c r="JK44" s="11">
         <v>17800</v>
       </c>
+      <c r="JL44" s="11">
+        <v>18200</v>
+      </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>60</v>
       </c>
@@ -32318,8 +32540,14 @@
       <c r="JJ45" s="11">
         <v>13900</v>
       </c>
+      <c r="JK45" s="11">
+        <v>13500</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>13900</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>63</v>
       </c>
@@ -33126,10 +33354,16 @@
         <v>6200</v>
       </c>
       <c r="JJ46" s="11">
-        <v>6100</v>
+        <v>6200</v>
+      </c>
+      <c r="JK46" s="11">
+        <v>6200</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>6200</v>
       </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>64</v>
       </c>
@@ -33936,10 +34170,16 @@
         <v>27500</v>
       </c>
       <c r="JJ47" s="11">
-        <v>28100</v>
+        <v>27700</v>
+      </c>
+      <c r="JK47" s="11">
+        <v>28000</v>
+      </c>
+      <c r="JL47" s="11">
+        <v>27700</v>
       </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>65</v>
       </c>
@@ -34748,8 +34988,14 @@
       <c r="JJ48" s="11">
         <v>1200</v>
       </c>
+      <c r="JK48" s="11">
+        <v>1200</v>
+      </c>
+      <c r="JL48" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>66</v>
       </c>
@@ -35556,10 +35802,16 @@
         <v>26300</v>
       </c>
       <c r="JJ49" s="11">
-        <v>26900</v>
+        <v>26500</v>
+      </c>
+      <c r="JK49" s="11">
+        <v>26800</v>
+      </c>
+      <c r="JL49" s="11">
+        <v>26500</v>
       </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>67</v>
       </c>
@@ -36368,8 +36620,14 @@
       <c r="JJ50" s="11">
         <v>3200</v>
       </c>
+      <c r="JK50" s="11">
+        <v>3300</v>
+      </c>
+      <c r="JL50" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>68</v>
       </c>
@@ -37178,8 +37436,14 @@
       <c r="JJ51" s="11">
         <v>1700</v>
       </c>
+      <c r="JK51" s="11">
+        <v>1800</v>
+      </c>
+      <c r="JL51" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>69</v>
       </c>
@@ -37988,8 +38252,14 @@
       <c r="JJ52" s="11">
         <v>1500</v>
       </c>
+      <c r="JK52" s="11">
+        <v>1500</v>
+      </c>
+      <c r="JL52" s="11">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>70</v>
       </c>
@@ -38796,10 +39066,16 @@
         <v>23100</v>
       </c>
       <c r="JJ53" s="11">
-        <v>23700</v>
+        <v>23300</v>
+      </c>
+      <c r="JK53" s="11">
+        <v>23500</v>
+      </c>
+      <c r="JL53" s="11">
+        <v>23300</v>
       </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>71</v>
       </c>
@@ -39606,10 +39882,16 @@
         <v>12000</v>
       </c>
       <c r="JJ54" s="11">
+        <v>12300</v>
+      </c>
+      <c r="JK54" s="11">
         <v>12600</v>
       </c>
+      <c r="JL54" s="11">
+        <v>12400</v>
+      </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>72</v>
       </c>
@@ -40416,10 +40698,16 @@
         <v>11100</v>
       </c>
       <c r="JJ55" s="11">
-        <v>11100</v>
+        <v>11000</v>
+      </c>
+      <c r="JK55" s="11">
+        <v>10900</v>
+      </c>
+      <c r="JL55" s="11">
+        <v>10900</v>
       </c>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>73</v>
       </c>
@@ -41228,8 +41516,14 @@
       <c r="JJ56" s="11">
         <v>4800</v>
       </c>
+      <c r="JK56" s="11">
+        <v>4700</v>
+      </c>
+      <c r="JL56" s="11">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>74</v>
       </c>
@@ -42038,8 +42332,14 @@
       <c r="JJ57" s="11">
         <v>2500</v>
       </c>
+      <c r="JK57" s="11">
+        <v>2500</v>
+      </c>
+      <c r="JL57" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>75</v>
       </c>
@@ -42846,10 +43146,16 @@
         <v>3800</v>
       </c>
       <c r="JJ58" s="11">
-        <v>3800</v>
+        <v>3700</v>
+      </c>
+      <c r="JK58" s="11">
+        <v>3700</v>
+      </c>
+      <c r="JL58" s="11">
+        <v>3700</v>
       </c>
     </row>
-    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>142</v>
       </c>
@@ -42862,7 +43168,7 @@
       <c r="H60" s="17"/>
       <c r="I60" s="16"/>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>16</v>
       </c>
@@ -42875,7 +43181,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="18"/>
     </row>
-    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>143</v>
       </c>
@@ -42888,7 +43194,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="18"/>
     </row>
-    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>144</v>
       </c>
@@ -42901,7 +43207,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>145</v>
       </c>
